--- a/data/negative_signals/Indirectly connected (A-X-B) - Dorzolamide - Upper gastrointestinal bleeding.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Dorzolamide - Upper gastrointestinal bleeding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="293">
   <si>
     <t>pathWeight</t>
   </si>
@@ -188,13 +188,13 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>110637274</t>
+    <t>44432222</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>147712349</t>
+    <t>81293789</t>
   </si>
   <si>
     <t>treats</t>
@@ -209,49 +209,508 @@
     <t>Living Beings</t>
   </si>
   <si>
-    <t>132272391</t>
+    <t>52978646</t>
+  </si>
+  <si>
+    <t>95334458</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>65794556</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>161538236</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>119262386</t>
-  </si>
-  <si>
-    <t>117524068</t>
+    <t>57307883</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>52591486</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>57805976</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51329725</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>124207329</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>164892621</t>
+    <t>98693987</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>123718242</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>118894819</t>
-  </si>
-  <si>
-    <t>occurs in</t>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>52294476</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>78402669</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>84780171</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>78402611</t>
+  </si>
+  <si>
+    <t>105153750</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>51563689</t>
+  </si>
+  <si>
+    <t>60534273</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>66664549</t>
+  </si>
+  <si>
+    <t>88033969</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>71124879</t>
+  </si>
+  <si>
+    <t>58140816</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>111308698</t>
+  </si>
+  <si>
+    <t>60019829</t>
+  </si>
+  <si>
+    <t>132440210</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39420032</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>62372494</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>108574511</t>
+  </si>
+  <si>
+    <t>99137477</t>
+  </si>
+  <si>
+    <t>116397230</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>54035283</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>54718809</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>114830635</t>
+  </si>
+  <si>
+    <t>114830687</t>
+  </si>
+  <si>
+    <t>51563435</t>
+  </si>
+  <si>
+    <t>89816964</t>
+  </si>
+  <si>
+    <t>77651873</t>
+  </si>
+  <si>
+    <t>66750786</t>
+  </si>
+  <si>
+    <t>83279346</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>75560611</t>
+  </si>
+  <si>
+    <t>115479323</t>
+  </si>
+  <si>
+    <t>101750684</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>39420037</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>93370995</t>
+  </si>
+  <si>
+    <t>94509228</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>3781901</t>
+  </si>
+  <si>
+    <t>lesion</t>
+  </si>
+  <si>
+    <t>77627895</t>
+  </si>
+  <si>
+    <t>51586804</t>
+  </si>
+  <si>
+    <t>54376478</t>
+  </si>
+  <si>
+    <t>56645322</t>
+  </si>
+  <si>
+    <t>4048421</t>
+  </si>
+  <si>
+    <t>hemodynamics</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>85674336</t>
+  </si>
+  <si>
+    <t>85675255</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>91916765</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>77473068</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>108173730</t>
+  </si>
+  <si>
+    <t>65674727</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>97047907</t>
+  </si>
+  <si>
+    <t>116166654</t>
+  </si>
+  <si>
+    <t>61440825</t>
+  </si>
+  <si>
+    <t>69033934</t>
+  </si>
+  <si>
+    <t>2899046</t>
+  </si>
+  <si>
+    <t>areae</t>
+  </si>
+  <si>
+    <t>64331837</t>
+  </si>
+  <si>
+    <t>78516585</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>102535430</t>
+  </si>
+  <si>
+    <t>51977415</t>
+  </si>
+  <si>
+    <t>5231409</t>
+  </si>
+  <si>
+    <t>adrenergic beta-antagonists</t>
+  </si>
+  <si>
+    <t>95514984</t>
+  </si>
+  <si>
+    <t>109063186</t>
+  </si>
+  <si>
+    <t>110644808</t>
+  </si>
+  <si>
+    <t>56010613</t>
+  </si>
+  <si>
+    <t>93174720</t>
+  </si>
+  <si>
+    <t>121645813</t>
+  </si>
+  <si>
+    <t>5070869</t>
+  </si>
+  <si>
+    <t>antihypertensive agents</t>
+  </si>
+  <si>
+    <t>68306986</t>
+  </si>
+  <si>
+    <t>68310137</t>
+  </si>
+  <si>
+    <t>39420033</t>
+  </si>
+  <si>
+    <t>99453137</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>108586531</t>
+  </si>
+  <si>
+    <t>52830708</t>
+  </si>
+  <si>
+    <t>127009363</t>
+  </si>
+  <si>
+    <t>64273753</t>
+  </si>
+  <si>
+    <t>63541786</t>
+  </si>
+  <si>
+    <t>104609662</t>
+  </si>
+  <si>
+    <t>65910669</t>
+  </si>
+  <si>
+    <t>31905</t>
+  </si>
+  <si>
+    <t>arteries</t>
+  </si>
+  <si>
+    <t>81251109</t>
+  </si>
+  <si>
+    <t>52597122</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>94062878</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>113572262</t>
+  </si>
+  <si>
+    <t>94062668</t>
+  </si>
+  <si>
+    <t>76021122</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>107238807</t>
+  </si>
+  <si>
+    <t>119267642</t>
+  </si>
+  <si>
+    <t>55721196</t>
+  </si>
+  <si>
+    <t>65822493</t>
+  </si>
+  <si>
+    <t>64202804</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>57224390</t>
+  </si>
+  <si>
+    <t>55721271</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>112518550</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>119191153</t>
+  </si>
+  <si>
+    <t>88110518</t>
+  </si>
+  <si>
+    <t>131934131</t>
+  </si>
+  <si>
+    <t>53391</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>97183868</t>
+  </si>
+  <si>
+    <t>70180089</t>
+  </si>
+  <si>
+    <t>5332246</t>
+  </si>
+  <si>
+    <t>ketorolac</t>
+  </si>
+  <si>
+    <t>84780837</t>
+  </si>
+  <si>
+    <t>99453251</t>
+  </si>
+  <si>
+    <t>99458966</t>
   </si>
   <si>
     <t>5308239</t>
@@ -260,40 +719,97 @@
     <t>woman</t>
   </si>
   <si>
-    <t>187791771</t>
-  </si>
-  <si>
-    <t>119184207</t>
-  </si>
-  <si>
-    <t>159612690</t>
-  </si>
-  <si>
-    <t>5070869</t>
-  </si>
-  <si>
-    <t>antihypertensive agents</t>
-  </si>
-  <si>
-    <t>134666830</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>105771884</t>
-  </si>
-  <si>
-    <t>134662937</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>165655167</t>
-  </si>
-  <si>
-    <t>predisposes</t>
+    <t>121576479</t>
+  </si>
+  <si>
+    <t>93323743</t>
+  </si>
+  <si>
+    <t>52877336</t>
+  </si>
+  <si>
+    <t>5223016</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>111115854</t>
+  </si>
+  <si>
+    <t>87702258</t>
+  </si>
+  <si>
+    <t>71143411</t>
+  </si>
+  <si>
+    <t>3814895</t>
+  </si>
+  <si>
+    <t>prostaglandins, synthetic</t>
+  </si>
+  <si>
+    <t>115466714</t>
+  </si>
+  <si>
+    <t>110656299</t>
+  </si>
+  <si>
+    <t>3779305</t>
+  </si>
+  <si>
+    <t>consumption-archaic term for tb</t>
+  </si>
+  <si>
+    <t>116952385</t>
+  </si>
+  <si>
+    <t>118617720</t>
+  </si>
+  <si>
+    <t>82718891</t>
+  </si>
+  <si>
+    <t>83677395</t>
+  </si>
+  <si>
+    <t>3766801</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>113553779</t>
+  </si>
+  <si>
+    <t>108341667</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>95334372</t>
+  </si>
+  <si>
+    <t>51903019</t>
+  </si>
+  <si>
+    <t>130438015</t>
+  </si>
+  <si>
+    <t>89588312</t>
+  </si>
+  <si>
+    <t>53005627</t>
+  </si>
+  <si>
+    <t>54665073</t>
   </si>
   <si>
     <t>36011</t>
@@ -302,496 +818,16 @@
     <t>adult</t>
   </si>
   <si>
-    <t>172976658</t>
-  </si>
-  <si>
-    <t>170813544</t>
-  </si>
-  <si>
-    <t>161940030</t>
-  </si>
-  <si>
-    <t>123032046</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>177536356</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>126466014</t>
-  </si>
-  <si>
-    <t>198633599</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>118556082</t>
-  </si>
-  <si>
-    <t>151191753</t>
-  </si>
-  <si>
-    <t>171268049</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>144771984</t>
-  </si>
-  <si>
-    <t>144772020</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>117766359</t>
-  </si>
-  <si>
-    <t>133020994</t>
-  </si>
-  <si>
-    <t>154227840</t>
-  </si>
-  <si>
-    <t>126968989</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>134946300</t>
-  </si>
-  <si>
-    <t>124630603</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>174765152</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>193160960</t>
-  </si>
-  <si>
-    <t>119161447</t>
-  </si>
-  <si>
-    <t>170813885</t>
-  </si>
-  <si>
-    <t>129934987</t>
-  </si>
-  <si>
-    <t>132310978</t>
-  </si>
-  <si>
-    <t>127508301</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>141996729</t>
-  </si>
-  <si>
-    <t>181677563</t>
-  </si>
-  <si>
-    <t>167950175</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>105771888</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>160703773</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>159553704</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>174355463</t>
-  </si>
-  <si>
-    <t>132028620</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>128785327</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>121113233</t>
-  </si>
-  <si>
-    <t>181039875</t>
-  </si>
-  <si>
-    <t>182604055</t>
-  </si>
-  <si>
-    <t>120377673</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>181039919</t>
-  </si>
-  <si>
-    <t>105771883</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>165351321</t>
-  </si>
-  <si>
-    <t>174765607</t>
-  </si>
-  <si>
-    <t>155973108</t>
-  </si>
-  <si>
-    <t>117766097</t>
-  </si>
-  <si>
-    <t>144088830</t>
-  </si>
-  <si>
-    <t>149700192</t>
-  </si>
-  <si>
-    <t>130146329</t>
-  </si>
-  <si>
-    <t>2899046</t>
-  </si>
-  <si>
-    <t>areae</t>
-  </si>
-  <si>
-    <t>130736027</t>
-  </si>
-  <si>
-    <t>144907969</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>168746533</t>
-  </si>
-  <si>
-    <t>118222244</t>
-  </si>
-  <si>
-    <t>5231409</t>
-  </si>
-  <si>
-    <t>adrenergic beta-antagonists</t>
-  </si>
-  <si>
-    <t>161703579</t>
-  </si>
-  <si>
-    <t>176819984</t>
-  </si>
-  <si>
-    <t>175289980</t>
-  </si>
-  <si>
-    <t>159340157</t>
-  </si>
-  <si>
-    <t>122388029</t>
-  </si>
-  <si>
-    <t>187791008</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>161538151</t>
-  </si>
-  <si>
-    <t>119286478</t>
-  </si>
-  <si>
-    <t>155857335</t>
-  </si>
-  <si>
-    <t>121005053</t>
-  </si>
-  <si>
-    <t>196643003</t>
-  </si>
-  <si>
-    <t>118099137</t>
-  </si>
-  <si>
-    <t>31905</t>
-  </si>
-  <si>
-    <t>arteries</t>
-  </si>
-  <si>
-    <t>147626182</t>
-  </si>
-  <si>
-    <t>118833397</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>160243326</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>179777912</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>160243047</t>
-  </si>
-  <si>
-    <t>142379950</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>185401633</t>
-  </si>
-  <si>
-    <t>198091409</t>
-  </si>
-  <si>
-    <t>154348012</t>
-  </si>
-  <si>
-    <t>53391</t>
-  </si>
-  <si>
-    <t>indomethacin</t>
-  </si>
-  <si>
-    <t>163391594</t>
-  </si>
-  <si>
-    <t>136577681</t>
-  </si>
-  <si>
-    <t>5332246</t>
-  </si>
-  <si>
-    <t>ketorolac</t>
-  </si>
-  <si>
-    <t>151192420</t>
-  </si>
-  <si>
-    <t>165655267</t>
-  </si>
-  <si>
-    <t>165660750</t>
-  </si>
-  <si>
-    <t>5223016</t>
-  </si>
-  <si>
-    <t>syndrome</t>
-  </si>
-  <si>
-    <t>177340450</t>
-  </si>
-  <si>
-    <t>137615527</t>
-  </si>
-  <si>
-    <t>153983368</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>163239541</t>
-  </si>
-  <si>
-    <t>135401008</t>
-  </si>
-  <si>
-    <t>127828844</t>
-  </si>
-  <si>
-    <t>182389091</t>
-  </si>
-  <si>
-    <t>4048421</t>
-  </si>
-  <si>
-    <t>hemodynamics</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>158040549</t>
-  </si>
-  <si>
-    <t>152100811</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>152099763</t>
-  </si>
-  <si>
-    <t>143869815</t>
-  </si>
-  <si>
-    <t>3814895</t>
-  </si>
-  <si>
-    <t>prostaglandins, synthetic</t>
-  </si>
-  <si>
-    <t>181664414</t>
-  </si>
-  <si>
-    <t>176863578</t>
-  </si>
-  <si>
-    <t>3781901</t>
-  </si>
-  <si>
-    <t>lesion</t>
-  </si>
-  <si>
-    <t>144014149</t>
-  </si>
-  <si>
-    <t>117795283</t>
-  </si>
-  <si>
-    <t>120764300</t>
-  </si>
-  <si>
-    <t>119106823</t>
-  </si>
-  <si>
-    <t>3779305</t>
-  </si>
-  <si>
-    <t>consumption-archaic term for tb</t>
-  </si>
-  <si>
-    <t>183147741</t>
-  </si>
-  <si>
-    <t>149095103</t>
-  </si>
-  <si>
-    <t>150095974</t>
-  </si>
-  <si>
-    <t>184759582</t>
-  </si>
-  <si>
-    <t>3766801</t>
-  </si>
-  <si>
-    <t>fluctuation</t>
-  </si>
-  <si>
-    <t>179777747</t>
-  </si>
-  <si>
-    <t>174551529</t>
-  </si>
-  <si>
-    <t>is associated with</t>
+    <t>106787268</t>
+  </si>
+  <si>
+    <t>104609269</t>
+  </si>
+  <si>
+    <t>56619494</t>
+  </si>
+  <si>
+    <t>95706485</t>
   </si>
   <si>
     <t>356203</t>
@@ -800,13 +836,13 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>198358564</t>
+    <t>132201718</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>139328505</t>
+    <t>72930440</t>
   </si>
   <si>
     <t>2986464</t>
@@ -815,13 +851,13 @@
     <t>injection procedure</t>
   </si>
   <si>
-    <t>140080382</t>
-  </si>
-  <si>
-    <t>137705798</t>
-  </si>
-  <si>
-    <t>138343510</t>
+    <t>73698450</t>
+  </si>
+  <si>
+    <t>74446723</t>
+  </si>
+  <si>
+    <t>73816891</t>
   </si>
   <si>
     <t>2632572</t>
@@ -830,13 +866,13 @@
     <t>nitric oxide synthase, endothelial (homo sapiens)</t>
   </si>
   <si>
-    <t>187549486</t>
-  </si>
-  <si>
-    <t>138223837</t>
-  </si>
-  <si>
-    <t>136659313</t>
+    <t>71822382</t>
+  </si>
+  <si>
+    <t>121338733</t>
+  </si>
+  <si>
+    <t>70247612</t>
   </si>
   <si>
     <t>2506281</t>
@@ -845,16 +881,16 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>156897745</t>
-  </si>
-  <si>
-    <t>160242965</t>
-  </si>
-  <si>
-    <t>175929391</t>
-  </si>
-  <si>
-    <t>120188829</t>
+    <t>90712334</t>
+  </si>
+  <si>
+    <t>94062615</t>
+  </si>
+  <si>
+    <t>109715141</t>
+  </si>
+  <si>
+    <t>53871119</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1139,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55.0</v>
+        <v>75.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1136,19 +1172,19 @@
         <v>65</v>
       </c>
       <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>61</v>
       </c>
       <c r="Q3" t="s">
         <v>70</v>
@@ -1183,7 +1219,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39.0</v>
+        <v>9.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1201,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
@@ -1213,27 +1249,75 @@
         <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="W4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
+      <c r="AA4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1245,13 +1329,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
@@ -1263,33 +1347,27 @@
         <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1301,51 +1379,111 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="AK6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1357,13 +1495,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
@@ -1375,27 +1513,27 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s">
         <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1407,13 +1545,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
@@ -1425,75 +1563,27 @@
         <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" t="s">
-        <v>116</v>
-      </c>
-      <c r="U8" t="s">
-        <v>117</v>
-      </c>
-      <c r="V8" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" t="s">
-        <v>118</v>
-      </c>
-      <c r="X8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1505,13 +1595,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
@@ -1523,51 +1613,33 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" t="s">
-        <v>132</v>
-      </c>
-      <c r="V9" t="s">
-        <v>107</v>
-      </c>
-      <c r="W9" t="s">
-        <v>133</v>
-      </c>
-      <c r="X9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1579,13 +1651,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
@@ -1597,27 +1669,33 @@
         <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>153</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1629,13 +1707,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
         <v>55</v>
@@ -1647,27 +1725,21 @@
         <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1679,13 +1751,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -1697,16 +1769,28 @@
         <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" t="s">
         <v>61</v>
       </c>
-      <c r="M12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s">
-        <v>71</v>
+      <c r="Q12" t="s">
+        <v>164</v>
+      </c>
+      <c r="R12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -1723,13 +1807,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
@@ -1741,93 +1825,21 @@
         <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" t="s">
-        <v>156</v>
-      </c>
-      <c r="P13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>157</v>
-      </c>
-      <c r="R13" t="s">
-        <v>127</v>
-      </c>
-      <c r="S13" t="s">
-        <v>158</v>
-      </c>
-      <c r="T13" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" t="s">
-        <v>160</v>
-      </c>
-      <c r="V13" t="s">
-        <v>113</v>
-      </c>
-      <c r="W13" t="s">
-        <v>161</v>
-      </c>
-      <c r="X13" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ13" t="s">
         <v>77</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1839,10 +1851,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
         <v>170</v>
-      </c>
-      <c r="F14" t="s">
-        <v>171</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -1857,16 +1869,16 @@
         <v>57</v>
       </c>
       <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" t="s">
         <v>172</v>
       </c>
-      <c r="L14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s">
-        <v>173</v>
-      </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1883,34 +1895,58 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
         <v>174</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
         <v>175</v>
       </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
         <v>176</v>
       </c>
-      <c r="L15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
         <v>177</v>
       </c>
-      <c r="N15" t="s">
-        <v>71</v>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" t="s">
+        <v>180</v>
+      </c>
+      <c r="V15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1927,10 +1963,10 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -1945,40 +1981,28 @@
         <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
-      </c>
-      <c r="S16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" t="s">
-        <v>159</v>
-      </c>
-      <c r="U16" t="s">
-        <v>185</v>
-      </c>
-      <c r="V16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1995,13 +2019,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -2013,40 +2037,46 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R17" t="s">
         <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T17" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="U17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="W17" t="s">
+        <v>195</v>
+      </c>
+      <c r="X17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2063,13 +2093,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
         <v>55</v>
@@ -2081,16 +2111,16 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
@@ -2107,10 +2137,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
@@ -2125,28 +2155,28 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R19" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -2163,10 +2193,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -2181,22 +2211,52 @@
         <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
         <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="O20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>119</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R20" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" t="s">
+        <v>214</v>
+      </c>
+      <c r="U20" t="s">
+        <v>215</v>
+      </c>
+      <c r="V20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" t="s">
+        <v>216</v>
+      </c>
+      <c r="X20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -2213,13 +2273,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>55</v>
@@ -2231,16 +2291,22 @@
         <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="O21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -2257,10 +2323,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -2275,22 +2341,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O22" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -2307,13 +2367,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>55</v>
@@ -2325,22 +2385,22 @@
         <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="O23" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -2357,13 +2417,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>55</v>
@@ -2375,28 +2435,22 @@
         <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M24" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="O24" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -2413,13 +2467,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
         <v>55</v>
@@ -2431,28 +2485,22 @@
         <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="M25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>238</v>
-      </c>
-      <c r="R25" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -2469,10 +2517,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -2487,13 +2535,13 @@
         <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s">
         <v>61</v>
@@ -2513,10 +2561,10 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
         <v>57</v>
@@ -2531,28 +2579,28 @@
         <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="O27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="Q27" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="R27" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -2569,10 +2617,10 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
         <v>57</v>
@@ -2587,28 +2635,16 @@
         <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
-      </c>
-      <c r="O28" t="s">
-        <v>253</v>
-      </c>
-      <c r="P28" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>254</v>
-      </c>
-      <c r="R28" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -2625,13 +2661,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
@@ -2643,16 +2679,40 @@
         <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>263</v>
+      </c>
+      <c r="R29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" t="s">
+        <v>264</v>
+      </c>
+      <c r="T29" t="s">
+        <v>67</v>
+      </c>
+      <c r="U29" t="s">
+        <v>265</v>
+      </c>
+      <c r="V29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -2669,13 +2729,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
@@ -2687,16 +2747,28 @@
         <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="M30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="O30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>271</v>
+      </c>
+      <c r="R30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -2713,13 +2785,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
@@ -2731,22 +2803,16 @@
         <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" t="s">
-        <v>269</v>
-      </c>
-      <c r="P31" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -2763,13 +2829,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
@@ -2781,22 +2847,22 @@
         <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -2813,13 +2879,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
         <v>55</v>
@@ -2831,28 +2897,78 @@
         <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="s">
+        <v>291</v>
+      </c>
+      <c r="P34" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" t="s">
-        <v>280</v>
-      </c>
-      <c r="R33" t="s">
-        <v>159</v>
+      <c r="Q34" t="s">
+        <v>292</v>
+      </c>
+      <c r="R34" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
